--- a/data/trans_camb/P25A_10_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_10_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,7 +690,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,7 +700,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,15 +710,45 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,05</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-5,05</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -705,7 +783,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,15 +793,45 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>1,54; 11,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; -1,65</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,5</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 7,35</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; -0,77</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -758,25 +866,55 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -853,42 +1021,72 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,52</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,93</t>
+          <t>-1,11; 2,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,99</t>
+          <t>-1,37; 1,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 0,0</t>
+          <t>-0,42; 5,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; -0,52</t>
+          <t>-3,76; 2,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 0,24</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 48,36</t>
+          <t>-5,34; -0,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,49</t>
+          <t>-5,11; 0,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,7</t>
+          <t>-1,26; 7,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 35,71</t>
+          <t>-5,9; 4,43</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 7,99</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 0,1</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 0,53</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 4,95</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 2,57</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 4,6</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>57,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>284,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-85,25%</t>
+          <t>-45,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-72,32%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>753,69%</t>
+          <t>-85,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-65,14%</t>
+          <t>-70,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-48,07%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>926,25%</t>
+          <t>-8,02%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>127,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-68,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-48,39%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>130,48%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-17,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>178,5%</t>
         </is>
       </c>
     </row>
@@ -1027,27 +1285,57 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 130,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,68; 3355,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 326,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-91,11; 140,07</t>
+          <t>-41,29; 630,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,73; 4011,66</t>
+          <t>-72,0; 160,27</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-46,83; 1056,7</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-89,19; 144,45</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-28,47; 601,17</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-72,36; 144,29</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-49,57; 1239,47</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,27</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,75</t>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; -0,33</t>
+          <t>-3,5; -0,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 0,16</t>
+          <t>-3,03; 0,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 41,37</t>
+          <t>-2,1; 1,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,98</t>
+          <t>-0,78; 4,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,0</t>
+          <t>-0,42; 5,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 27,45</t>
+          <t>-2,9; 1,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,64</t>
+          <t>-3,05; 1,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,76</t>
+          <t>0,9; 7,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 24,95</t>
+          <t>-4,32; 5,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 8,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 0,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 0,58</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,28</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 3,62</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 5,82</t>
         </is>
       </c>
     </row>
@@ -1175,42 +1523,72 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-77,22%</t>
+          <t>-78,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1182,5%</t>
+          <t>-3,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,63%</t>
+          <t>135,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>205,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>502,77%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-35,32%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-28,09%</t>
+          <t>150,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>720,14%</t>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>152,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-38,33%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-31,8%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>104,87%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>167,45%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1616,62 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-69,8; 153,14</t>
+          <t>-71,68; 1141,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,26; 146,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>79,58; 1579,31</t>
+          <t>-72,48; 144,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-76,69; 62,1</t>
+          <t>-70,75; 175,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,33; 76,92</t>
+          <t>13,21; 565,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>173,39; 1823,19</t>
+          <t>-47,24; 114,23</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-10,16; 544,43</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-78,81; 48,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-74,02; 58,37</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 346,95</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-35,18; 132,32</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>18,78; 563,46</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,89</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>0,06</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>16,76</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,25</t>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,83</t>
+          <t>-0,82; 2,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,86</t>
+          <t>-0,67; 2,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 41,51</t>
+          <t>-1,13; 2,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,88</t>
+          <t>0,43; 6,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 3,23</t>
+          <t>-1,2; 5,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,84; 29,93</t>
+          <t>-2,73; 2,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,1</t>
+          <t>-2,49; 3,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,39</t>
+          <t>-0,56; 6,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,58; 30,66</t>
+          <t>-0,95; 9,07</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 10,71</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 2,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 2,32</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 3,81</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 6,34</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 7,07</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>131,31%</t>
+          <t>127,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>149,34%</t>
+          <t>129,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2885,51%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>283,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>111,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>454,76%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>813,25%</t>
+          <t>57,79%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>119,26%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>71,55%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>86,58%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>118,21%</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1942,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,1; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,32 +1952,62 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,9; 129,84</t>
+          <t>-30,09; 2181,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 151,55</t>
+          <t>-44,92; 823,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>143,17; 1185,44</t>
+          <t>-52,41; 118,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 151,45</t>
+          <t>-48,62; 147,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 172,69</t>
+          <t>-13,43; 252,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>361,22; 1801,73</t>
+          <t>-15,7; 190,75</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 342,69</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-38,74; 162,39</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-37,79; 151,87</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-13,47; 258,66</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 220,88</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>15,57; 303,99</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,53</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,55</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27,11</t>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,99</t>
+          <t>-0,9; 3,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,08</t>
+          <t>-1,01; 3,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,38; 38,83</t>
+          <t>-1,37; 2,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 1,31</t>
+          <t>2,02; 9,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 0,1</t>
+          <t>0,21; 8,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,07; 39,55</t>
+          <t>-9,35; 0,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,3</t>
+          <t>-9,82; -0,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,73</t>
+          <t>-4,43; 8,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,67; 37,37</t>
+          <t>-6,5; 6,19</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 5,74</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 1,23</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 0,68</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 4,81</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 6,32</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 5,69</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>140,96%</t>
+          <t>143,52%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>139,17%</t>
+          <t>131,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2478,36%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-38,1%</t>
+          <t>423,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-54,64%</t>
+          <t>157,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>318,98%</t>
+          <t>-41,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>-56,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-38,09%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>565,91%</t>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-25,68%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-39,91%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>25,73%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>42,85%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>31,76%</t>
         </is>
       </c>
     </row>
@@ -1655,12 +2273,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,29; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,84; —</t>
+          <t>-96,41; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,32 +2288,62 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-68,78; 29,82</t>
+          <t>34,68; 1992,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-79,64; 18,71</t>
+          <t>-17,21; 731,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>138,14; 648,92</t>
+          <t>-75,81; 11,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 37,99</t>
+          <t>-83,09; 0,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-69,79; 33,41</t>
+          <t>-39,37; 116,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>269,78; 952,49</t>
+          <t>-44,46; 85,01</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-40,45; 72,72</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-60,81; 38,36</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-70,76; 21,72</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-25,83; 138,48</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-15,99; 140,23</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; 108,36</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>30,74</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,69</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>18,8</t>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 9,59</t>
+          <t>-0,96; 9,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,31</t>
+          <t>-3,94; 2,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,25; 63,34</t>
+          <t>-2,95; 4,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 3,03</t>
+          <t>-3,64; 5,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 3,16</t>
+          <t>-3,7; 5,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,88; 28,02</t>
+          <t>-8,09; 3,09</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 3,46</t>
+          <t>-7,31; 6,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,24</t>
+          <t>-3,91; 11,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,22; 30,6</t>
+          <t>-10,29; 6,65</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 9,76</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 3,65</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 3,11</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 6,31</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 3,93</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 6,39</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>118,47%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-8,95%</t>
+          <t>-20,73%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1123,53%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-25,53%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-25,31%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>125,29%</t>
+          <t>-20,75%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>-12,17%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>254,78%</t>
+          <t>-16,84%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-14,05%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>25,38%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-10,63%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>35,84%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 1090,0</t>
+          <t>-39,91; 791,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-86,04; 364,37</t>
+          <t>-84,47; 268,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>111,99; 4526,28</t>
+          <t>-72,91; 578,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-59,29; 43,21</t>
+          <t>-78,77; 429,76</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-62,26; 52,29</t>
+          <t>-82,72; 576,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,77; 350,68</t>
+          <t>-56,02; 44,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-47,61; 65,41</t>
+          <t>-55,72; 88,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-61,37; 45,73</t>
+          <t>-33,31; 141,11</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>84,92; 519,49</t>
+          <t>-56,7; 74,51</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-34,95; 178,49</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-43,07; 74,5</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-55,6; 60,37</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-28,27; 106,84</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-50,8; 62,97</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-33,94; 148,87</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>19,62</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,74</t>
+          <t>-0,39; 1,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,97</t>
+          <t>-0,73; 0,91</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,77; 30,87</t>
+          <t>-0,39; 1,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,04</t>
+          <t>0,27; 3,01</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,13</t>
+          <t>0,33; 3,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,9; 25,94</t>
+          <t>-2,99; 0,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,43</t>
+          <t>-2,97; 0,59</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,3</t>
+          <t>1,32; 5,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,97; 25,99</t>
+          <t>-2,72; 2,15</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 5,07</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 0,43</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 0,43</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 3,45</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 1,91</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 3,46</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>50,54%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1938,26%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-29,1%</t>
+          <t>108,93%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-29,27%</t>
+          <t>115,88%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>392,71%</t>
+          <t>-28,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>-25,47%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-21,67%</t>
+          <t>66,28%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>674,51%</t>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>56,69%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-15,03%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-19,66%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>62,69%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>70,21%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 245,37</t>
+          <t>-30,43; 264,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 151,71</t>
+          <t>-50,83; 148,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>844,56; 4326,23</t>
+          <t>-32,9; 206,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 0,88</t>
+          <t>4,98; 299,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 4,01</t>
+          <t>10,91; 319,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>234,13; 585,76</t>
+          <t>-50,35; 6,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 18,92</t>
+          <t>-48,88; 16,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-43,62; 12,45</t>
+          <t>21,3; 141,51</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>467,52; 947,51</t>
+          <t>-28,32; 30,47</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 119,13</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-38,18; 17,33</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-43,05; 19,49</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 125,59</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-15,38; 43,41</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>25,42; 120,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
